--- a/db/BD_Supermercado.xlsx
+++ b/db/BD_Supermercado.xlsx
@@ -8,19 +8,61 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xlsav-lx19\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B71F491-6BB3-4826-B049-7DCB189874BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD83ACE8-F5C1-4865-8E72-BE2677FADCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="2" r:id="rId1"/>
+    <sheet name="Estadistica" sheetId="4" r:id="rId2"/>
+    <sheet name="Consulta" sheetId="5" r:id="rId3"/>
+    <sheet name="DB" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Datos!$A$1:$G$997</definedName>
+    <definedName name="Recaudacion">Estadistica!$A:$A</definedName>
+    <definedName name="ventas_años">Estadistica!$1:$1</definedName>
+    <definedName name="ventas_rxa">Estadistica!$A:$E</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="48">
   <si>
     <t>Mes</t>
   </si>
@@ -37,9 +79,6 @@
     <t>Unidades</t>
   </si>
   <si>
-    <t>Ventas (en $)</t>
-  </si>
-  <si>
     <t>Región</t>
   </si>
   <si>
@@ -47,9 +86,6 @@
   </si>
   <si>
     <t>Bebidas</t>
-  </si>
-  <si>
-    <t>Cárdenas</t>
   </si>
   <si>
     <t>Pacífico</t>
@@ -85,9 +121,6 @@
     <t>Carnes</t>
   </si>
   <si>
-    <t>Juárez</t>
-  </si>
-  <si>
     <t>Santanderes</t>
   </si>
   <si>
@@ -98,9 +131,6 @@
   </si>
   <si>
     <t>Antioquia</t>
-  </si>
-  <si>
-    <t>Sánchez</t>
   </si>
   <si>
     <t>Mar</t>
@@ -126,12 +156,66 @@
   <si>
     <t>Nov</t>
   </si>
+  <si>
+    <t>Ventas</t>
+  </si>
+  <si>
+    <t>Cardenas</t>
+  </si>
+  <si>
+    <t>Juarez</t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>CANTIDAD</t>
+  </si>
+  <si>
+    <t>RECAUDADO</t>
+  </si>
+  <si>
+    <t>VENTAS</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>PROMEDIO</t>
+  </si>
+  <si>
+    <t>Recaudacion</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>fila</t>
+  </si>
+  <si>
+    <t>columna</t>
+  </si>
+  <si>
+    <t>BUSCARH</t>
+  </si>
+  <si>
+    <t>BUSCARV</t>
+  </si>
+  <si>
+    <t>INDICE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -139,6 +223,11 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -161,17 +250,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -489,18 +584,18 @@
   </sheetPr>
   <dimension ref="A1:N997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="13" width="10.7109375" customWidth="1"/>
     <col min="14" max="14" width="17.7109375" customWidth="1"/>
@@ -523,4331 +618,4331 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>2009</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1">
         <v>3933</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>16252665</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>2010</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1">
         <v>2998</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>31939624</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>2008</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1">
         <v>2061</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>20180744</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>2010</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1">
         <v>4151</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>10436592</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>2009</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1">
         <v>2211</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>14885918</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>2009</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1">
         <v>2912</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>17918813</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>2008</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1">
         <v>4380</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>8427590</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>2008</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1">
         <v>2696</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>26234243</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
         <v>2008</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1">
         <v>1759</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>6478805</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1">
         <v>2010</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1">
         <v>1302</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <v>16000781</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1">
         <v>2008</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1">
         <v>1413</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="4">
         <v>11747242</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1">
         <v>2009</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1">
         <v>4030</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
         <v>8654422</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1">
         <v>2009</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E14" s="1">
         <v>3855</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="4">
         <v>26452658</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>2009</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E15" s="1">
         <v>984</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="4">
         <v>21702854</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1">
         <v>2010</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E16" s="1">
         <v>3043</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="4">
         <v>20842073</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1">
         <v>2009</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E17" s="1">
         <v>1193</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="4">
         <v>30643074</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1">
         <v>2008</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E18" s="1">
         <v>1386</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="4">
         <v>13353392</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1">
         <v>2008</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E19" s="1">
         <v>1306</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="4">
         <v>5417604</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1">
         <v>2010</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1">
         <v>4574</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="4">
         <v>23403699</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1">
         <v>2009</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E21" s="1">
         <v>3061</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="4">
         <v>24939400</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1">
         <v>2009</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E22" s="1">
         <v>3403</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="4">
         <v>9790633</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B23" s="1">
         <v>2008</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E23" s="1">
         <v>3781</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="4">
         <v>22925625</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>2010</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E24" s="1">
         <v>3577</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="4">
         <v>7474946</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B25" s="1">
         <v>2009</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E25" s="1">
         <v>4924</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="4">
         <v>12732093</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1">
         <v>2008</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E26" s="1">
         <v>4301</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="4">
         <v>21478628</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B27" s="1">
         <v>2008</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E27" s="1">
         <v>2798</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="4">
         <v>21411284</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B28" s="1">
         <v>2009</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E28" s="1">
         <v>1829</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="4">
         <v>24143127</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1">
         <v>2010</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E29" s="1">
         <v>1088</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="4">
         <v>18194098</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1">
         <v>2009</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E30" s="1">
         <v>4295</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="4">
         <v>16927126</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B31" s="1">
         <v>2008</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E31" s="1">
         <v>1262</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="4">
         <v>9325822</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B32" s="1">
         <v>2010</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E32" s="1">
         <v>1708</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="4">
         <v>7740822</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B33" s="1">
         <v>2010</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E33" s="1">
         <v>3663</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="4">
         <v>29592962</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B34" s="1">
         <v>2008</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E34" s="1">
         <v>3562</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="4">
         <v>9309943</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B35" s="1">
         <v>2010</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E35" s="1">
         <v>1663</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="4">
         <v>30051572</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N35" s="1"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B36" s="1">
         <v>2010</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E36" s="1">
         <v>4859</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="4">
         <v>23269797</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N36" s="1"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B37" s="1">
         <v>2009</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E37" s="1">
         <v>3501</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="4">
         <v>11003834</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B38" s="1">
         <v>2009</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E38" s="1">
         <v>2047</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="4">
         <v>8310230</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B39" s="1">
         <v>2010</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E39" s="1">
         <v>1379</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="4">
         <v>12801434</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B40" s="1">
         <v>2009</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E40" s="1">
         <v>995</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="4">
         <v>8718052</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N40" s="1"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B41" s="1">
         <v>2008</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E41" s="1">
         <v>4991</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="4">
         <v>7707689</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B42" s="1">
         <v>2009</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E42" s="1">
         <v>4701</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="4">
         <v>26261678</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N42" s="1"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B43" s="1">
         <v>2009</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E43" s="1">
         <v>1137</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="4">
         <v>5147572</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N43" s="1"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B44" s="1">
         <v>2010</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E44" s="1">
         <v>3867</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="4">
         <v>18659009</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N44" s="1"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B45" s="1">
         <v>2010</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E45" s="1">
         <v>3187</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="4">
         <v>9831454</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N45" s="1"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B46" s="1">
         <v>2008</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E46" s="1">
         <v>2636</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="4">
         <v>11433092</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N46" s="1"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B47" s="1">
         <v>2008</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E47" s="1">
         <v>3035</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="4">
         <v>18264416</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N47" s="1"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B48" s="1">
         <v>2008</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E48" s="1">
         <v>2455</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="4">
         <v>26417450</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N48" s="1"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B49" s="1">
         <v>2008</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E49" s="1">
         <v>2341</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="4">
         <v>31075727</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N49" s="1"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B50" s="1">
         <v>2010</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E50" s="1">
         <v>4363</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="4">
         <v>26787710</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N50" s="1"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B51" s="1">
         <v>2009</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E51" s="1">
         <v>3641</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="4">
         <v>22334665</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N51" s="1"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B52" s="1">
         <v>2009</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E52" s="1">
         <v>2145</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="4">
         <v>14358111</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N52" s="1"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B53" s="1">
         <v>2009</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E53" s="1">
         <v>1146</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="4">
         <v>26212472</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N53" s="1"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B54" s="1">
         <v>2010</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E54" s="1">
         <v>2131</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="4">
         <v>25501630</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N54" s="1"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B55" s="1">
         <v>2010</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E55" s="1">
         <v>1908</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="4">
         <v>8811970</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N55" s="1"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B56" s="1">
         <v>2010</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E56" s="1">
         <v>3311</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="4">
         <v>30558635</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N56" s="1"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B57" s="1">
         <v>2010</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E57" s="1">
         <v>2072</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="4">
         <v>20187167</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N57" s="1"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B58" s="1">
         <v>2008</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E58" s="1">
         <v>3207</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="4">
         <v>26670251</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N58" s="1"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B59" s="1">
         <v>2009</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E59" s="1">
         <v>3309</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="4">
         <v>12097081</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N59" s="1"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B60" s="1">
         <v>2010</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E60" s="1">
         <v>4153</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="4">
         <v>24478544</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N60" s="1"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B61" s="1">
         <v>2009</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E61" s="1">
         <v>2341</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="4">
         <v>6385654</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N61" s="1"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B62" s="1">
         <v>2008</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E62" s="1">
         <v>2291</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="4">
         <v>16130387</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N62" s="1"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B63" s="1">
         <v>2008</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E63" s="1">
         <v>4638</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="4">
         <v>21936584</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N63" s="1"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B64" s="1">
         <v>2009</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E64" s="1">
         <v>3000</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="4">
         <v>6264677</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N64" s="1"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B65" s="1">
         <v>2010</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E65" s="1">
         <v>933</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="4">
         <v>17785852</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N65" s="1"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B66" s="1">
         <v>2010</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E66" s="1">
         <v>2918</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="4">
         <v>18209808</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N66" s="1"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B67" s="1">
         <v>2010</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E67" s="1">
         <v>3759</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="4">
         <v>9168379</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N67" s="1"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B68" s="1">
         <v>2009</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E68" s="1">
         <v>981</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="4">
         <v>25986138</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N68" s="1"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B69" s="1">
         <v>2010</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E69" s="1">
         <v>4242</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="4">
         <v>7839347</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N69" s="1"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B70" s="1">
         <v>2008</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E70" s="1">
         <v>3055</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="4">
         <v>7878480</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N70" s="1"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B71" s="1">
         <v>2010</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E71" s="1">
         <v>4271</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="4">
         <v>22379055</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N71" s="1"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B72" s="1">
         <v>2010</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E72" s="1">
         <v>1398</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="4">
         <v>19471883</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N72" s="1"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B73" s="1">
         <v>2009</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E73" s="1">
         <v>4836</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="4">
         <v>15867065</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N73" s="1"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B74" s="1">
         <v>2010</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E74" s="1">
         <v>2734</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="4">
         <v>16356155</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N74" s="1"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B75" s="1">
         <v>2010</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E75" s="1">
         <v>2507</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="4">
         <v>19832348</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N75" s="1"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B76" s="1">
         <v>2010</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E76" s="1">
         <v>3669</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="4">
         <v>23375718</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N76" s="1"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B77" s="1">
         <v>2008</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E77" s="1">
         <v>3261</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="4">
         <v>15535130</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N77" s="1"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B78" s="1">
         <v>2010</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E78" s="1">
         <v>3338</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="4">
         <v>30817683</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N78" s="1"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B79" s="1">
         <v>2009</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E79" s="1">
         <v>2310</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="4">
         <v>25516215</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N79" s="1"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B80" s="1">
         <v>2010</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E80" s="1">
         <v>3365</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="4">
         <v>19324281</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N80" s="1"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B81" s="1">
         <v>2009</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E81" s="1">
         <v>2102</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="4">
         <v>6364343</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N81" s="1"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B82" s="1">
         <v>2008</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E82" s="1">
         <v>3893</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="4">
         <v>15513284</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N82" s="1"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B83" s="1">
         <v>2008</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E83" s="1">
         <v>3399</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="4">
         <v>23606354</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N83" s="1"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B84" s="1">
         <v>2010</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E84" s="1">
         <v>3439</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="4">
         <v>30486465</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N84" s="1"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B85" s="1">
         <v>2008</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E85" s="1">
         <v>4058</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="4">
         <v>30435593</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N85" s="1"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B86" s="1">
         <v>2009</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E86" s="1">
         <v>1127</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="4">
         <v>13363854</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N86" s="1"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B87" s="1">
         <v>2009</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E87" s="1">
         <v>4150</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="4">
         <v>26091699</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N87" s="1"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B88" s="1">
         <v>2008</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E88" s="1">
         <v>928</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88" s="4">
         <v>20233647</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N88" s="1"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B89" s="1">
         <v>2010</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E89" s="1">
         <v>4169</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="4">
         <v>21416077</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N89" s="1"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B90" s="1">
         <v>2008</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E90" s="1">
         <v>4754</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90" s="4">
         <v>20896240</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N90" s="1"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B91" s="1">
         <v>2010</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E91" s="1">
         <v>2030</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="4">
         <v>26065419</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N91" s="1"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B92" s="1">
         <v>2010</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E92" s="1">
         <v>1996</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92" s="4">
         <v>23079163</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N92" s="1"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B93" s="1">
         <v>2009</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E93" s="1">
         <v>983</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="4">
         <v>29014564</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N93" s="1"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B94" s="1">
         <v>2010</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E94" s="1">
         <v>2109</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="4">
         <v>15430177</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N94" s="1"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B95" s="1">
         <v>2008</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E95" s="1">
         <v>2619</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="4">
         <v>5540308</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N95" s="1"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B96" s="1">
         <v>2010</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E96" s="1">
         <v>3508</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96" s="4">
         <v>14196849</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N96" s="1"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B97" s="1">
         <v>2009</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E97" s="1">
         <v>2096</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97" s="4">
         <v>31378227</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N97" s="1"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B98" s="1">
         <v>2008</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E98" s="1">
         <v>2537</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98" s="4">
         <v>13677001</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N98" s="1"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B99" s="1">
         <v>2008</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E99" s="1">
         <v>1055</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="4">
         <v>5090135</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N99" s="1"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B100" s="1">
         <v>2008</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E100" s="1">
         <v>3671</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="4">
         <v>23367335</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N100" s="1"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B101" s="1">
         <v>2010</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E101" s="1">
         <v>951</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="4">
         <v>11066989</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N101" s="1"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B102" s="1">
         <v>2009</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E102" s="1">
         <v>2413</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="4">
         <v>11217929</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N102" s="1"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B103" s="1">
         <v>2010</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E103" s="1">
         <v>2018</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F103" s="4">
         <v>5608677</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N103" s="1"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B104" s="1">
         <v>2009</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E104" s="1">
         <v>1292</v>
       </c>
-      <c r="F104" s="3">
+      <c r="F104" s="4">
         <v>17359884</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N104" s="1"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B105" s="1">
         <v>2008</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E105" s="1">
         <v>3684</v>
       </c>
-      <c r="F105" s="3">
+      <c r="F105" s="4">
         <v>31929296</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N105" s="1"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B106" s="1">
         <v>2008</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E106" s="1">
         <v>3452</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F106" s="4">
         <v>19813786</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N106" s="1"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B107" s="1">
         <v>2008</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E107" s="1">
         <v>2815</v>
       </c>
-      <c r="F107" s="3">
+      <c r="F107" s="4">
         <v>16917541</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N107" s="1"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B108" s="1">
         <v>2009</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E108" s="1">
         <v>2260</v>
       </c>
-      <c r="F108" s="3">
+      <c r="F108" s="4">
         <v>5126450</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N108" s="1"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B109" s="1">
         <v>2010</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E109" s="1">
         <v>1308</v>
       </c>
-      <c r="F109" s="3">
+      <c r="F109" s="4">
         <v>13992377</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N109" s="1"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B110" s="1">
         <v>2008</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E110" s="1">
         <v>4125</v>
       </c>
-      <c r="F110" s="3">
+      <c r="F110" s="4">
         <v>6788991</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N110" s="1"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B111" s="1">
         <v>2009</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E111" s="1">
         <v>3695</v>
       </c>
-      <c r="F111" s="3">
+      <c r="F111" s="4">
         <v>26752434</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N111" s="1"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B112" s="1">
         <v>2009</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E112" s="1">
         <v>2650</v>
       </c>
-      <c r="F112" s="3">
+      <c r="F112" s="4">
         <v>30372259</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N112" s="1"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B113" s="1">
         <v>2008</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E113" s="1">
         <v>3696</v>
       </c>
-      <c r="F113" s="3">
+      <c r="F113" s="4">
         <v>10106212</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N113" s="1"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B114" s="1">
         <v>2009</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E114" s="1">
         <v>3385</v>
       </c>
-      <c r="F114" s="3">
+      <c r="F114" s="4">
         <v>23594558</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N114" s="1"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B115" s="1">
         <v>2008</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E115" s="1">
         <v>2607</v>
       </c>
-      <c r="F115" s="3">
+      <c r="F115" s="4">
         <v>6428849</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N115" s="1"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B116" s="1">
         <v>2010</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E116" s="1">
         <v>3454</v>
       </c>
-      <c r="F116" s="3">
+      <c r="F116" s="4">
         <v>5855114</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N116" s="1"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B117" s="1">
         <v>2010</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E117" s="1">
         <v>1026</v>
       </c>
-      <c r="F117" s="3">
+      <c r="F117" s="4">
         <v>23182580</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N117" s="1"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B118" s="1">
         <v>2009</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E118" s="1">
         <v>4538</v>
       </c>
-      <c r="F118" s="3">
+      <c r="F118" s="4">
         <v>12131878</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N118" s="1"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B119" s="1">
         <v>2010</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E119" s="1">
         <v>2634</v>
       </c>
-      <c r="F119" s="3">
+      <c r="F119" s="4">
         <v>14483060</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N119" s="1"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B120" s="1">
         <v>2009</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E120" s="1">
         <v>4983</v>
       </c>
-      <c r="F120" s="3">
+      <c r="F120" s="4">
         <v>18114279</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N120" s="1"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B121" s="1">
         <v>2009</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E121" s="1">
         <v>2133</v>
       </c>
-      <c r="F121" s="3">
+      <c r="F121" s="4">
         <v>24566041</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N121" s="1"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B122" s="1">
         <v>2010</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E122" s="1">
         <v>4066</v>
       </c>
-      <c r="F122" s="3">
+      <c r="F122" s="4">
         <v>21530703</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N122" s="1"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B123" s="1">
         <v>2008</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E123" s="1">
         <v>3750</v>
       </c>
-      <c r="F123" s="3">
+      <c r="F123" s="4">
         <v>24348714</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N123" s="1"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B124" s="1">
         <v>2009</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E124" s="1">
         <v>1116</v>
       </c>
-      <c r="F124" s="3">
+      <c r="F124" s="4">
         <v>12483245</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N124" s="1"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B125" s="1">
         <v>2008</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E125" s="1">
         <v>2627</v>
       </c>
-      <c r="F125" s="3">
+      <c r="F125" s="4">
         <v>9299840</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N125" s="1"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B126" s="1">
         <v>2008</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E126" s="1">
         <v>4397</v>
       </c>
-      <c r="F126" s="3">
+      <c r="F126" s="4">
         <v>26381433</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N126" s="1"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B127" s="1">
         <v>2009</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E127" s="1">
         <v>3717</v>
       </c>
-      <c r="F127" s="3">
+      <c r="F127" s="4">
         <v>16039246</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N127" s="1"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B128" s="1">
         <v>2009</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E128" s="1">
         <v>2754</v>
       </c>
-      <c r="F128" s="3">
+      <c r="F128" s="4">
         <v>31553984</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N128" s="1"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B129" s="1">
         <v>2009</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E129" s="1">
         <v>932</v>
       </c>
-      <c r="F129" s="3">
+      <c r="F129" s="4">
         <v>17647949</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N129" s="1"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B130" s="1">
         <v>2008</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E130" s="1">
         <v>4858</v>
       </c>
-      <c r="F130" s="3">
+      <c r="F130" s="4">
         <v>13669395</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N130" s="1"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B131" s="1">
         <v>2010</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E131" s="1">
         <v>4562</v>
       </c>
-      <c r="F131" s="3">
+      <c r="F131" s="4">
         <v>10629130</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N131" s="1"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B132" s="1">
         <v>2009</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E132" s="1">
         <v>4134</v>
       </c>
-      <c r="F132" s="3">
+      <c r="F132" s="4">
         <v>27692129</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N132" s="1"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B133" s="1">
         <v>2009</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E133" s="1">
         <v>3190</v>
       </c>
-      <c r="F133" s="3">
+      <c r="F133" s="4">
         <v>19446356</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N133" s="1"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B134" s="1">
         <v>2009</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E134" s="1">
         <v>3905</v>
       </c>
-      <c r="F134" s="3">
+      <c r="F134" s="4">
         <v>10579704</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N134" s="1"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B135" s="1">
         <v>2008</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E135" s="1">
         <v>1807</v>
       </c>
-      <c r="F135" s="3">
+      <c r="F135" s="4">
         <v>18002618</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N135" s="1"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B136" s="1">
         <v>2010</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E136" s="1">
         <v>1243</v>
       </c>
-      <c r="F136" s="3">
+      <c r="F136" s="4">
         <v>9319345</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N136" s="1"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B137" s="1">
         <v>2008</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E137" s="1">
         <v>4810</v>
       </c>
-      <c r="F137" s="3">
+      <c r="F137" s="4">
         <v>30765033</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N137" s="1"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B138" s="1">
         <v>2008</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E138" s="1">
         <v>3009</v>
       </c>
-      <c r="F138" s="3">
+      <c r="F138" s="4">
         <v>11257947</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N138" s="1"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B139" s="1">
         <v>2009</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E139" s="1">
         <v>2936</v>
       </c>
-      <c r="F139" s="3">
+      <c r="F139" s="4">
         <v>26855207</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N139" s="1"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B140" s="1">
         <v>2009</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E140" s="1">
         <v>4425</v>
       </c>
-      <c r="F140" s="3">
+      <c r="F140" s="4">
         <v>5870101</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N140" s="1"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B141" s="1">
         <v>2010</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E141" s="1">
         <v>1425</v>
       </c>
-      <c r="F141" s="3">
+      <c r="F141" s="4">
         <v>17959045</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N141" s="1"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B142" s="1">
         <v>2010</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E142" s="1">
         <v>3044</v>
       </c>
-      <c r="F142" s="3">
+      <c r="F142" s="4">
         <v>11783323</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N142" s="1"/>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B143" s="1">
         <v>2008</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E143" s="1">
         <v>4951</v>
       </c>
-      <c r="F143" s="3">
+      <c r="F143" s="4">
         <v>12222666</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N143" s="1"/>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B144" s="1">
         <v>2009</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E144" s="1">
         <v>2566</v>
       </c>
-      <c r="F144" s="3">
+      <c r="F144" s="4">
         <v>21006431</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N144" s="1"/>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B145" s="1">
         <v>2009</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E145" s="1">
         <v>3925</v>
       </c>
-      <c r="F145" s="3">
+      <c r="F145" s="4">
         <v>24435739</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N145" s="1"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B146" s="1">
         <v>2010</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E146" s="1">
         <v>4261</v>
       </c>
-      <c r="F146" s="3">
+      <c r="F146" s="4">
         <v>15874389</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N146" s="1"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B147" s="1">
         <v>2008</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E147" s="1">
         <v>1546</v>
       </c>
-      <c r="F147" s="3">
+      <c r="F147" s="4">
         <v>24898288</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N147" s="1"/>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B148" s="1">
         <v>2008</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E148" s="1">
         <v>1162</v>
       </c>
-      <c r="F148" s="3">
+      <c r="F148" s="4">
         <v>5792861</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N148" s="1"/>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B149" s="1">
         <v>2009</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E149" s="1">
         <v>1526</v>
       </c>
-      <c r="F149" s="3">
+      <c r="F149" s="4">
         <v>9658136</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N149" s="1"/>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B150" s="1">
         <v>2009</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E150" s="1">
         <v>2538</v>
       </c>
-      <c r="F150" s="3">
+      <c r="F150" s="4">
         <v>20260377</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N150" s="1"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B151" s="1">
         <v>2010</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E151" s="1">
         <v>2613</v>
       </c>
-      <c r="F151" s="3">
+      <c r="F151" s="4">
         <v>25398033</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N151" s="1"/>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B152" s="1">
         <v>2008</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E152" s="1">
         <v>4851</v>
       </c>
-      <c r="F152" s="3">
+      <c r="F152" s="4">
         <v>7999078</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N152" s="1"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B153" s="1">
         <v>2008</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E153" s="1">
         <v>1539</v>
       </c>
-      <c r="F153" s="3">
+      <c r="F153" s="4">
         <v>21394635</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N153" s="1"/>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B154" s="1">
         <v>2009</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E154" s="1">
         <v>3726</v>
       </c>
-      <c r="F154" s="3">
+      <c r="F154" s="4">
         <v>27800655</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N154" s="1"/>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B155" s="1">
         <v>2010</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E155" s="1">
         <v>2167</v>
       </c>
-      <c r="F155" s="3">
+      <c r="F155" s="4">
         <v>22960434</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N155" s="1"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B156" s="1">
         <v>2010</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E156" s="1">
         <v>4132</v>
       </c>
-      <c r="F156" s="3">
+      <c r="F156" s="4">
         <v>14165841</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N156" s="1"/>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B157" s="1">
         <v>2010</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E157" s="1">
         <v>4811</v>
       </c>
-      <c r="F157" s="3">
+      <c r="F157" s="4">
         <v>17156818</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N157" s="1"/>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B158" s="1">
         <v>2010</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E158" s="1">
         <v>4210</v>
       </c>
-      <c r="F158" s="3">
+      <c r="F158" s="4">
         <v>9226347</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N158" s="1"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B159" s="1">
         <v>2010</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E159" s="1">
         <v>2163</v>
       </c>
-      <c r="F159" s="3">
+      <c r="F159" s="4">
         <v>29503575</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N159" s="1"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B160" s="1">
         <v>2008</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E160" s="1">
         <v>3863</v>
       </c>
-      <c r="F160" s="3">
+      <c r="F160" s="4">
         <v>30389515</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N160" s="1"/>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B161" s="1">
         <v>2009</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E161" s="1">
         <v>3710</v>
       </c>
-      <c r="F161" s="3">
+      <c r="F161" s="4">
         <v>22140321</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N161" s="1"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B162" s="1">
         <v>2008</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E162" s="1">
         <v>2659</v>
       </c>
-      <c r="F162" s="3">
+      <c r="F162" s="4">
         <v>7919393</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N162" s="1"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B163" s="1">
         <v>2010</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E163" s="1">
         <v>2531</v>
       </c>
-      <c r="F163" s="3">
+      <c r="F163" s="4">
         <v>16944827</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N163" s="1"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B164" s="1">
         <v>2009</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E164" s="1">
         <v>3971</v>
       </c>
-      <c r="F164" s="3">
+      <c r="F164" s="4">
         <v>29989212</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N164" s="1"/>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B165" s="1">
         <v>2008</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E165" s="1">
         <v>1023</v>
       </c>
-      <c r="F165" s="3">
+      <c r="F165" s="4">
         <v>8057755</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N165" s="1"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B166" s="1">
         <v>2008</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E166" s="1">
         <v>3761</v>
       </c>
-      <c r="F166" s="3">
+      <c r="F166" s="4">
         <v>8066334</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N166" s="1"/>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B167" s="1">
         <v>2010</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E167" s="1">
         <v>2264</v>
       </c>
-      <c r="F167" s="3">
+      <c r="F167" s="4">
         <v>21708461</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N167" s="1"/>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B168" s="1">
         <v>2008</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E168" s="1">
         <v>3983</v>
       </c>
-      <c r="F168" s="3">
+      <c r="F168" s="4">
         <v>18755446</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N168" s="1"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B169" s="1">
         <v>2008</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E169" s="1">
         <v>2697</v>
       </c>
-      <c r="F169" s="3">
+      <c r="F169" s="4">
         <v>9662521</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N169" s="1"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B170" s="1">
         <v>2009</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E170" s="1">
         <v>1018</v>
       </c>
-      <c r="F170" s="3">
+      <c r="F170" s="4">
         <v>25078121</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N170" s="1"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B171" s="1">
         <v>2008</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E171" s="1">
         <v>3533</v>
       </c>
-      <c r="F171" s="3">
+      <c r="F171" s="4">
         <v>7658056</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N171" s="1"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B172" s="1">
         <v>2008</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E172" s="1">
         <v>2893</v>
       </c>
-      <c r="F172" s="3">
+      <c r="F172" s="4">
         <v>18318567</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N172" s="1"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B173" s="1">
         <v>2010</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E173" s="1">
         <v>4758</v>
       </c>
-      <c r="F173" s="3">
+      <c r="F173" s="4">
         <v>9312010</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N173" s="1"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B174" s="1">
         <v>2008</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E174" s="1">
         <v>2925</v>
       </c>
-      <c r="F174" s="3">
+      <c r="F174" s="4">
         <v>31204355</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N174" s="1"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B175" s="1">
         <v>2010</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E175" s="1">
         <v>4672</v>
       </c>
-      <c r="F175" s="3">
+      <c r="F175" s="4">
         <v>20725397</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N175" s="1"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B176" s="1">
         <v>2008</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E176" s="1">
         <v>2288</v>
       </c>
-      <c r="F176" s="3">
+      <c r="F176" s="4">
         <v>29657237</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N176" s="1"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B177" s="1">
         <v>2009</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E177" s="1">
         <v>2109</v>
       </c>
-      <c r="F177" s="3">
+      <c r="F177" s="4">
         <v>11102083</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N177" s="1"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B178" s="1">
         <v>2009</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E178" s="1">
         <v>1777</v>
       </c>
-      <c r="F178" s="3">
+      <c r="F178" s="4">
         <v>23972335</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N178" s="1"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B179" s="1">
         <v>2010</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E179" s="1">
         <v>960</v>
       </c>
-      <c r="F179" s="3">
+      <c r="F179" s="4">
         <v>9124694</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N179" s="1"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B180" s="1">
         <v>2008</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E180" s="1">
         <v>3142</v>
       </c>
-      <c r="F180" s="3">
+      <c r="F180" s="4">
         <v>21837764</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N180" s="1"/>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B181" s="1">
         <v>2009</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E181" s="1">
         <v>2162</v>
       </c>
-      <c r="F181" s="3">
+      <c r="F181" s="4">
         <v>8280515</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N181" s="1"/>
     </row>
@@ -12196,6 +12291,373 @@
       <c r="N997" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G997" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0F76C9-A9F1-467F-8C3B-A990DD90B4F2}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C1">
+        <v>2010</v>
+      </c>
+      <c r="D1">
+        <v>2009</v>
+      </c>
+      <c r="E1">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4">
+        <v>220283900</v>
+      </c>
+      <c r="C2" s="4">
+        <f>SUMIFS(Datos!$F:$F,Datos!$G:$G,Estadistica!$A2,Datos!$B:$B,Estadistica!C$1)</f>
+        <v>218564244</v>
+      </c>
+      <c r="D2" s="4">
+        <f>SUMIFS(Datos!$F:$F,Datos!$G:$G,Estadistica!$A2,Datos!$B:$B,Estadistica!D$1)</f>
+        <v>203341463</v>
+      </c>
+      <c r="E2" s="4">
+        <f>SUMIFS(Datos!$F:$F,Datos!$G:$G,Estadistica!$A2,Datos!$B:$B,Estadistica!E$1)</f>
+        <v>218669111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4">
+        <v>192758429</v>
+      </c>
+      <c r="C3" s="4">
+        <f>SUMIFS(Datos!$F:$F,Datos!$G:$G,Estadistica!$A3,Datos!$B:$B,Estadistica!C$1)</f>
+        <v>214457221</v>
+      </c>
+      <c r="D3" s="4">
+        <f>SUMIFS(Datos!$F:$F,Datos!$G:$G,Estadistica!$A3,Datos!$B:$B,Estadistica!D$1)</f>
+        <v>201880917</v>
+      </c>
+      <c r="E3" s="4">
+        <f>SUMIFS(Datos!$F:$F,Datos!$G:$G,Estadistica!$A3,Datos!$B:$B,Estadistica!E$1)</f>
+        <v>160364763</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4">
+        <v>300783290</v>
+      </c>
+      <c r="C4" s="4">
+        <f>SUMIFS(Datos!$F:$F,Datos!$G:$G,Estadistica!$A4,Datos!$B:$B,Estadistica!C$1)</f>
+        <v>216914467</v>
+      </c>
+      <c r="D4" s="4">
+        <f>SUMIFS(Datos!$F:$F,Datos!$G:$G,Estadistica!$A4,Datos!$B:$B,Estadistica!D$1)</f>
+        <v>239992813</v>
+      </c>
+      <c r="E4" s="4">
+        <f>SUMIFS(Datos!$F:$F,Datos!$G:$G,Estadistica!$A4,Datos!$B:$B,Estadistica!E$1)</f>
+        <v>220801841</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4">
+        <v>220182390</v>
+      </c>
+      <c r="C5" s="4">
+        <f>SUMIFS(Datos!$F:$F,Datos!$G:$G,Estadistica!$A5,Datos!$B:$B,Estadistica!C$1)</f>
+        <v>240503116</v>
+      </c>
+      <c r="D5" s="4">
+        <f>SUMIFS(Datos!$F:$F,Datos!$G:$G,Estadistica!$A5,Datos!$B:$B,Estadistica!D$1)</f>
+        <v>221383553</v>
+      </c>
+      <c r="E5" s="4">
+        <f>SUMIFS(Datos!$F:$F,Datos!$G:$G,Estadistica!$A5,Datos!$B:$B,Estadistica!E$1)</f>
+        <v>190929354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4">
+        <v>280283740</v>
+      </c>
+      <c r="C6" s="4">
+        <f>SUMIFS(Datos!$F:$F,Datos!$G:$G,Estadistica!$A6,Datos!$B:$B,Estadistica!C$1)</f>
+        <v>198871299</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUMIFS(Datos!$F:$F,Datos!$G:$G,Estadistica!$A6,Datos!$B:$B,Estadistica!D$1)</f>
+        <v>240247726</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUMIFS(Datos!$F:$F,Datos!$G:$G,Estadistica!$A6,Datos!$B:$B,Estadistica!E$1)</f>
+        <v>216479082</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="4"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Region no Encontrada" error="Utilice alguno de los valores de la lista, y agreguelo en caso de no existir" sqref="C9" xr:uid="{C558ADCD-AC12-4DE4-B34C-8B8934BC93F9}">
+      <formula1>$A$2:$A$6</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Año incorrecto" error="Escriba un valor entre 2000 y el año actual" sqref="C10" xr:uid="{6B75C28C-875A-43B0-9BCF-78CBF82B687F}">
+      <formula1>2000</formula1>
+      <formula2>YEAR(TODAY())</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B13FF0A-69E3-4103-B23C-831DF82EE3A9}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1">
+        <f>MATCH(B1,Recaudacion,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2008</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2">
+        <f>MATCH(B2,ventas_años,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="4">
+        <f>HLOOKUP(B2,ventas_rxa,E1,0)</f>
+        <v>190929354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="4">
+        <f>VLOOKUP(B1,ventas_rxa,E2,0)</f>
+        <v>190929354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="4" cm="1">
+        <f t="array" ref="B5">INDEX(ventas_rxa,E1,E2)</f>
+        <v>190929354</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Region no Encontrada" error="Seleccione un valor de la lista" sqref="B1" xr:uid="{9CF2992D-9C0E-42D6-A094-B13EF8BFE172}">
+      <formula1>$D$1:$D$5</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Año incorrecto" error="Escriba un año entre 2000 y el año actual" sqref="B2" xr:uid="{490BD5F1-D912-46E1-9A2B-AD45BF14BBA0}">
+      <formula1>2000</formula1>
+      <formula2>YEAR(TODAY())</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B643B179-4E77-4112-9D74-508B4EF38DF5}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1">
+        <f>COUNT(Datos!F:F)</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>2009</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="5">
+        <f>SUM(Datos!F:F)</f>
+        <v>3203400970</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4">
+        <f>DCOUNT(Datos!A:G,DB!F1,DB!A1:G2)</f>
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <f>IFERROR(J4,"revise las condiciones de a2:f2")</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="4">
+        <f>DMIN(Datos!A:G,DB!F1,DB!A1:G2)</f>
+        <v>8280515</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" ref="K5:K7" si="0">IFERROR(J5,"revise las condiciones de a2:f2")</f>
+        <v>8280515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="4">
+        <f>DMAX(Datos!A:F,F1,A1:G2)</f>
+        <v>30643074</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>30643074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="4">
+        <f>DAVERAGE(Datos!A:F,F1,A1:G2)</f>
+        <v>18830083.615384616</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="0"/>
+        <v>18830083.615384616</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>